--- a/examples/data/test_data_company.xlsx
+++ b/examples/data/test_data_company.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Dropbox/My Mac (MacBook-Pro.local)/Documents/GitHub/MichaelTiemannOSC/ITR/test/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F677CF0-CF0E-B840-ACEF-AA403CA1C426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2299DB8-6C6D-E64A-A01E-0D506A0E421D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="16900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="115">
   <si>
     <t>company_name</t>
   </si>
@@ -378,12 +378,18 @@
   <si>
     <t>Emissions Intensities</t>
   </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +407,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -474,9 +486,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R56" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:R56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:S56" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:S56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="company_id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="isic"/>
@@ -489,11 +501,12 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sector"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ghg_s1s2"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ghg_s3"/>
+    <tableColumn id="14" xr3:uid="{FFE135B9-E84C-A148-8D66-CDC29776095E}" name="currency"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="company_revenue"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="company_market_cap"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="company_enterprise_value"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="company_total_assets" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[company_market_cap]]*Q2</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[company_market_cap]]*R2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="company_cash_equivalents"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="target_probability"/>
@@ -765,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,15 +789,15 @@
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="21.5" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="12" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,25 +835,28 @@
         <v>69</v>
       </c>
       <c r="M1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -862,26 +878,29 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2">
         <v>20248547996.814301</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10464805624.288601</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>20370723452.973598</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>814618.20572459605</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4528467714.7267599</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.42857142857142799</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -903,26 +922,29 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3">
         <v>276185899.61435097</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>170431377.0111033</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>348843699.94010025</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>27314.648029499283</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>69006940.998092517</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
@@ -944,26 +966,29 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4">
         <v>10283015131.798985</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3087133686.0634212</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4800604056.5816851</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>343642.47370860493</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1163119848.4230556</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -985,26 +1010,29 @@
       <c r="L5">
         <v>100080009.40172499</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5">
         <v>1860376238.2982879</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1395966780.8786128</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1849921444.2644947</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>159262.60935025438</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>117630751.45422383</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -1026,26 +1054,29 @@
       <c r="L6">
         <v>824864406.472471</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6">
         <v>31781332590.123966</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>20377644507.874138</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>34890123636.208443</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>43112605.779609621</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>28933197273.168182</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -1067,26 +1098,29 @@
       <c r="L7">
         <v>221601600.37633401</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7">
         <v>22080444055.733891</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>89487875452.409622</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>142815816841.33038</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>12916972.788158268</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>51876930016.314178</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -1108,26 +1142,29 @@
       <c r="L8">
         <v>411300002.58593798</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8">
         <v>940141306.02078247</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>81646651.50551033</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1803870072.9332182</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>24970.460312431045</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2214490.9702577037</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1149,26 +1186,29 @@
       <c r="L9">
         <v>1472652000.85954</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9">
         <v>7175786054.9926157</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3440335994.5862403</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>65904184518.992409</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>981839.21865557774</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>203940251.11854151</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -1190,26 +1230,29 @@
       <c r="L10">
         <v>21142801.5077199</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10">
         <v>23960680689.116013</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>70745916655.317459</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>73065684225.787689</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>62472439.555649042</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>42950453116.50563</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
@@ -1231,26 +1274,29 @@
       <c r="L11">
         <v>988020000.90192997</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11">
         <v>3219109002.8957133</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2496486713.6419001</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>5824358695.1941013</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1524416.4350418877</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5520000408.4878492</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>82</v>
       </c>
@@ -1272,26 +1318,29 @@
       <c r="L12">
         <v>73011601.154934406</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12">
         <v>2270961652.5606284</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2706457656.0257611</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>6515964879.9462776</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1952107.2215887399</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>505519258.45795137</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>83</v>
       </c>
@@ -1313,26 +1362,29 @@
       <c r="L13">
         <v>288420004.28137201</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13">
         <v>2923800677.4723639</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>664730339.05847764</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>835883594.76778483</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2411999.9946857756</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>462245314.11453331</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
@@ -1354,26 +1406,29 @@
       <c r="L14">
         <v>47691749.886496298</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14">
         <v>13732514101.607698</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3691311949.1466961</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5115075673.0843115</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>11668515.241009872</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1853875026.0311818</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
@@ -1395,26 +1450,29 @@
       <c r="L15">
         <v>551394001.12938702</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15">
         <v>209346393.16997689</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>4230199159.3241043</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>4360171694.8190174</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>17677610.033387754</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3272481697.8285317</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1436,26 +1494,29 @@
       <c r="L16">
         <v>242884801.55871701</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16">
         <v>1273070098.4773746</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>4968986648.6279879</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>7465409801.5517616</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2598718.9099521809</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>518880676.89759755</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
@@ -1477,26 +1538,29 @@
       <c r="L17">
         <v>89800001.396088406</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17">
         <v>7370536918.3818331</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>7318942238.1089144</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>24392175674.038094</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>21337139.680116065</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>990719858.47337103</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -1512,26 +1576,29 @@
       <c r="J18" t="s">
         <v>92</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18">
         <v>7275042285.2361631</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>9570757347.8462524</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>12112090004.878937</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>9846733.1359346434</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>470283632.88013947</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1547,26 +1614,29 @@
       <c r="J19" t="s">
         <v>92</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19">
         <v>1236962789.3246891</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>938015347.69711804</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1252496335.1625824</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4084768.6436157217</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>963039844.50366735</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1588,26 +1658,29 @@
       <c r="L20">
         <v>12453000.4760821</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="s">
+        <v>114</v>
+      </c>
+      <c r="N20">
         <v>261404023.84240809</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>662870771.96900964</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1167174030.7255652</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>472694.85008635663</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>23467516.32994597</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1629,26 +1702,29 @@
       <c r="L21">
         <v>23303009.677026</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21">
         <v>3077369259.9629478</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2939810093.7110219</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>13093340767.11665</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>13536767.267073056</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>457926390.7271148</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1670,26 +1746,29 @@
       <c r="L22">
         <v>27880000.2335485</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22">
         <v>23244037103.494522</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>2098673804.5958335</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>14963947966.837791</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>8645431.9293012284</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>469617764.24836379</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1711,26 +1790,29 @@
       <c r="L23">
         <v>12630001.0468216</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23">
         <v>1728429611.5289557</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>295280720.01181757</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1576360518.0586846</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2020519.8719741097</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>209706066.63280141</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -1752,26 +1834,29 @@
       <c r="L24">
         <v>23779000.829291299</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="s">
+        <v>114</v>
+      </c>
+      <c r="N24">
         <v>11389577659.555063</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>9120141519.5952988</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>12030116674.248018</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>11516548.098293064</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>80140338.552216381</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -1793,26 +1878,29 @@
       <c r="L25">
         <v>47840001.367614098</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25">
         <v>1367677977.4270518</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>19415557155.05172</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>19753012111.679474</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>44134141.772179961</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1863069356.1369269</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -1834,26 +1922,29 @@
       <c r="L26">
         <v>15520004.6310296</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26">
         <v>26686529634.595795</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>5602526037.038002</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>13449017632.306343</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>28682928.807853833</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>802015633.4125073</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -1869,26 +1960,29 @@
       <c r="J27" t="s">
         <v>92</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="s">
+        <v>114</v>
+      </c>
+      <c r="N27">
         <v>2631856604.6076617</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3041544901.9972501</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>3932507690.064404</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>18254077.867497787</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1090445581.1975896</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1910,26 +2004,29 @@
       <c r="L28">
         <v>11847001.922484901</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="s">
+        <v>114</v>
+      </c>
+      <c r="N28">
         <v>1955329090.5211396</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1202043687.03022</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>4172635345.0184641</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>22152151.290723033</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>408632883.32140654</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -1951,26 +2048,29 @@
       <c r="L29">
         <v>14618000.0778486</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="s">
+        <v>114</v>
+      </c>
+      <c r="N29">
         <v>679399572.34809971</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>989091472.7085501</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1824699389.5965521</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>12700301.946414873</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>223357269.54921383</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -1992,26 +2092,29 @@
       <c r="L30">
         <v>27110004.3464472</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="s">
+        <v>114</v>
+      </c>
+      <c r="N30">
         <v>4733667268.9461222</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>6559712908.8226519</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>7869272284.6593103</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>60818049.223066434</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1279584288.1275206</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -2027,26 +2130,30 @@
       <c r="J31" t="s">
         <v>92</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N31">
         <v>9338027130.3279953</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>933460072.78718007</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2521235187.1692467</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>18868083.741257884</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>259739897.26190066</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.42857142857142849</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -15427,7 +15534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
